--- a/resources/tools/wordlist_E-J/lessons/lesson-4.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,1296 +436,1296 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>to meet; to see (a person)</t>
+          <t>you</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>会う|あう</t>
+          <t>あなた</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>there is...</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ある</t>
+          <t>いす</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>to buy</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>買う|かう</t>
+          <t>犬|いぬ</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>to write</t>
+          <t>souvenir</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>書く|かく</t>
+          <t>お土産|おみやげ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>to take (a picture)</t>
+          <t>child</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>撮る|とる</t>
+          <t>子供|こども</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>to wait</t>
+          <t>rice; meal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>待つ|まつ</t>
+          <t>ご飯|ごはん</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>to understand</t>
+          <t>picture; photograph</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>わかる</t>
+          <t>写真|しゃしん</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(a person) is in...; stays at...</t>
+          <t>desk</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>いる</t>
+          <t>机|つくえ</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>letter</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>じゅうろくにち</t>
+          <t>手紙|てがみ</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>じゅうしちにち</t>
+          <t>猫|ねこ</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>じゅうはちにち</t>
+          <t>パン</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>person</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>じゅうくにち</t>
+          <t>人|ひと</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>e-mail</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>はつか</t>
+          <t>メール</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>the day before yesterday</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>にじゅういちにち</t>
+          <t>おととい</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>the day after tomorrow</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>にじゅうににち</t>
+          <t>あさって</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>two weeks ago</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>にじゅうさんにち</t>
+          <t>二週間前|にしゅうかんまえ</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>this week</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>にじゅうよっか</t>
+          <t>今週|こんしゅう</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>next week</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>にじゅうごにち</t>
+          <t>来週|らいしゅう</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>the week after next</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>にじゅうろくにち</t>
+          <t>再来週|さらいしゅう</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>two months ago</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>にじゅうしちにち</t>
+          <t>二か月前|にかげつまえ</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>last month</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>にじゅうはちにち</t>
+          <t>先月|せんげつ</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>this month</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>にじゅうくにち</t>
+          <t>今月|こんげつ</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>next month</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>さんじゅうにち</t>
+          <t>来月|らいげつ</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>the month after next</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>さんじゅういちにち</t>
+          <t>再来月|さらいげつ</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>part-time job</t>
+          <t>the year before last</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>アルバイト</t>
+          <t>おととし</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>shopping</t>
+          <t>last year</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>買い物|かいもの</t>
+          <t>去年|きょねん</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>this year</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>クラス</t>
+          <t>今年|ことし</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>temple</t>
+          <t>next year</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>お寺|おてら</t>
+          <t>来年|らいねん</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>the year after next</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>公園|こうえん</t>
+          <t>再来年|さらいねん</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>supermarket</t>
+          <t>part-time job</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>スーパー</t>
+          <t>アルバイト</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>department store</t>
+          <t>shopping</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>デパート</t>
+          <t>買い物|かいもの</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>bus stop</t>
+          <t>class</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>バス停|バスてい</t>
+          <t>クラス</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>temple</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>病院|びょういん</t>
+          <t>お寺|おてら</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>hotel</t>
+          <t>park</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ホテル</t>
+          <t>公園|こうえん</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bookstore</t>
+          <t>supermarket</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>本屋|ほんや</t>
+          <t>スーパー</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>town; city</t>
+          <t>department store</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>町|まち</t>
+          <t>デパート</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>bus stop</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>レストラン</t>
+          <t>バス停|バスてい</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>右|みぎ</t>
+          <t>病院|びょういん</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>hotel</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>左|ひだり</t>
+          <t>ホテル</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>bookstore</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>前|まえ</t>
+          <t>本屋|ほんや</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>town; city</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>後ろ|うしろ</t>
+          <t>町|まち</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>inside</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>中|なか</t>
+          <t>レストラン</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>yesterday</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>上|うえ</t>
+          <t>昨日|きのう</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>under</t>
+          <t>...hours</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>下|した</t>
+          <t>～時間|～じかん</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>near; nearby</t>
+          <t>one hour</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>近く|ちかく</t>
+          <t>一時間|いちじかん</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>next</t>
+          <t>last week</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>隣|となり</t>
+          <t>先週|せんしゅう</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>between</t>
+          <t>when...; at the time of...</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>間|あいだ</t>
+          <t>時|とき</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>あなた</t>
+          <t>月曜日|げつようび</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>いす</t>
+          <t>火曜日|かようび</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>犬|いぬ</t>
+          <t>水曜日|すいようび</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>souvenir</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>お土産|おみやげ</t>
+          <t>木曜日|もくようび</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>子供|こども</t>
+          <t>金曜日|きんようび</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>rice; meal</t>
+          <t>to meet; to see (a person)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ご飯|ごはん</t>
+          <t>会う|あう</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>picture; photograph</t>
+          <t>there is...</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>写真|しゃしん</t>
+          <t>ある</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>desk</t>
+          <t>to buy</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>机|つくえ</t>
+          <t>買う|かう</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>letter</t>
+          <t>to write</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>手紙|てがみ</t>
+          <t>書く|かく</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>to take (a picture)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>猫|ねこ</t>
+          <t>撮る|とる</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>to wait</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>パン</t>
+          <t>待つ|まつ</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>to understand</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>人|ひと</t>
+          <t>わかる</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>e-mail</t>
+          <t>(a person) is in...; stays at...</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>メール</t>
+          <t>いる</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>yesterday</t>
+          <t>about (approximate measurement)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>昨日|きのう</t>
+          <t>～ぐらい</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>...hours</t>
+          <t>I'm sorry.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>～時間|～じかん</t>
+          <t>ごめんなさい</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>one hour</t>
+          <t>so; therefore</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>一時間|いちじかん</t>
+          <t>だから</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>last week</t>
+          <t>many; a lot</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>先週|せんしゅう</t>
+          <t>たくさん</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>when...; at the time of...</t>
+          <t>together with (a person)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>時|とき</t>
+          <t>～と</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>why</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>月曜日|げつようび</t>
+          <t>どうして</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>alone</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>火曜日|かようび</t>
+          <t>一人で|ひとりで</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>right</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>水曜日|すいようび</t>
+          <t>右|みぎ</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>left</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>木曜日|もくようび</t>
+          <t>左|ひだり</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>front</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>金曜日|きんようび</t>
+          <t>前|まえ</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>the day before yesterday</t>
+          <t>back</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>おととい</t>
+          <t>後ろ|うしろ</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>the day after tomorrow</t>
+          <t>inside</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>あさって</t>
+          <t>中|なか</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>two weeks ago</t>
+          <t>on</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>二週間前|にしゅうかんまえ</t>
+          <t>上|うえ</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>this week</t>
+          <t>under</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>今週|こんしゅう</t>
+          <t>下|した</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>next week</t>
+          <t>near; nearby</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>来週|らいしゅう</t>
+          <t>近く|ちかく</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>the week after next</t>
+          <t>next</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>再来週|さらいしゅう</t>
+          <t>隣|となり</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>two months ago</t>
+          <t>between</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>二か月前|にかげつまえ</t>
+          <t>間|あいだ</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>last month</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>先月|せんげつ</t>
+          <t>ついたち</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>this month</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>今月|こんげつ</t>
+          <t>ふつか</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>next month</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>来月|らいげつ</t>
+          <t>みっか</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>the month after next</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>再来月|さらいげつ</t>
+          <t>よっか</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>the year before last</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>おととし</t>
+          <t>いつか</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>last year</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>去年|きょねん</t>
+          <t>むいか</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>this year</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>今年|ことし</t>
+          <t>なのか</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>next year</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>来年|らいねん</t>
+          <t>ようか</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>the year after next</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>再来年|さらいねん</t>
+          <t>ここのか</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ついたち</t>
+          <t>とおか</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ふつか</t>
+          <t>じゅういちにち</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>みっか</t>
+          <t>じゅうににち</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>よっか</t>
+          <t>じゅうさんにち</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>いつか</t>
+          <t>じゅうよっか</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>むいか</t>
+          <t>じゅうごにち</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>なのか</t>
+          <t>じゅうろくにち</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ようか</t>
+          <t>じゅうしちにち</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ここのか</t>
+          <t>じゅうはちにち</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>とおか</t>
+          <t>じゅうくにち</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>じゅういちにち</t>
+          <t>はつか</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>じゅうににち</t>
+          <t>にじゅういちにち</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>じゅうさんにち</t>
+          <t>にじゅうににち</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>じゅうよっか</t>
+          <t>にじゅうさんにち</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>じゅうごにち</t>
+          <t>にじゅうよっか</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>about (approximate measurement)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>～ぐらい</t>
+          <t>にじゅうごにち</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>I'm sorry.</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ごめんなさい</t>
+          <t>にじゅうろくにち</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>so; therefore</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>だから</t>
+          <t>にじゅうしちにち</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>many; a lot</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>たくさん</t>
+          <t>にじゅうはちにち</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>together with (a person)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>～と</t>
+          <t>にじゅうくにち</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>why</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>どうして</t>
+          <t>さんじゅうにち</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>alone</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>一人で|ひとりで</t>
+          <t>さんじゅういちにち</t>
         </is>
       </c>
     </row>
@@ -1808,276 +1876,276 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>火曜日|かようび</t>
+          <t>日本|にほん</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>火|ひ</t>
+          <t>日曜日|にちようび</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>volcano</t>
+          <t>every day</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>火山|かざん</t>
+          <t>毎日|まいにち</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>fireworks</t>
+          <t>Mother's day</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>花火|はなび</t>
+          <t>母の日|ははのひ</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Mars</t>
+          <t>diary</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>火星|かせい</t>
+          <t>日記|にっき</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>three days</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>水曜日|すいようび</t>
+          <t>三日|みっか</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>book</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>水|みず</t>
+          <t>本|ほん</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>swimming</t>
+          <t>Japanese language</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>水泳|すいえい</t>
+          <t>日本語|にほんご</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>water supply</t>
+          <t>Mr./Ms. Yamamoto</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>水道|すいどう</t>
+          <t>山本さん|やまもとさん</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>bathing suit</t>
+          <t>Japanese people</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>水着|みずぎ</t>
+          <t>日本人|にほんじん</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>alone</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>日曜日|にちようび</t>
+          <t>一人で|ひとりで</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>day of the week</t>
+          <t>this person</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>曜日|ようび</t>
+          <t>この人|このひと</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>top; above</t>
+          <t>three people</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>上|うえ</t>
+          <t>三人|さんにん</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>good at</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>上手な|じょうずな</t>
+          <t>月曜日|げつようび</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>rooftop</t>
+          <t>January</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>屋上|おくじょう</t>
+          <t>一月|いちがつ</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>to go up</t>
+          <t>moon</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>上る|のぼる</t>
+          <t>月|つき</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>under</t>
+          <t>this month</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>下|した</t>
+          <t>今月|こんげつ</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>subway</t>
+          <t>one month</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>地下鉄|ちかてつ</t>
+          <t>一か月|いっかげつ</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>poor at</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>下手な|へたな</t>
+          <t>火曜日|かようび</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Please give/do...</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>下さい|ください</t>
+          <t>火|ひ</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>volcano</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>日曜日</t>
+          <t>火山|かざん</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>fireworks</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>月曜日</t>
+          <t>花火|はなび</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Mars</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>火曜日</t>
+          <t>火星|かせい</t>
         </is>
       </c>
     </row>
@@ -2089,491 +2157,491 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>水曜日</t>
+          <t>水曜日|すいようび</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>water</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>木曜日</t>
+          <t>水|みず</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>swimming</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>金曜日</t>
+          <t>水泳|すいえい</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>water supply</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>土曜日</t>
+          <t>水道|すいどう</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>bathing suit</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>日本|にほん</t>
+          <t>水着|みずぎ</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>日曜日|にちようび</t>
+          <t>木曜日|もくようび</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>every day</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>毎日|まいにち</t>
+          <t>木|き</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Mother's day</t>
+          <t>Mr./Ms. Kimura</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>母の日|ははのひ</t>
+          <t>木村さん|きむらさん</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>diary</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>日記|にっき</t>
+          <t>金曜日|きんようび</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>three days</t>
+          <t>money</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>三日|みっか</t>
+          <t>お金|おかね</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>charge</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>本|ほん</t>
+          <t>料金|りょうきん</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Japanese language</t>
+          <t>rich person</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>日本語|にほんご</t>
+          <t>お金持ち|おかねもち</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Mr./Ms. Yamamoto</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>山本さん|やまもとさん</t>
+          <t>土曜日|どようび</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>soil</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>木曜日|もくようび</t>
+          <t>土|つち</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>tree</t>
+          <t>land</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>木|き</t>
+          <t>土地|とち</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Mr./Ms. Kimura</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>木村さん|きむらさん</t>
+          <t>粘土|ねんど</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>金曜日|きんようび</t>
+          <t>日曜日|にちようび</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>money</t>
+          <t>day of the week</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>お金|おかね</t>
+          <t>曜日|ようび</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>charge</t>
+          <t>top; above</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>料金|りょうきん</t>
+          <t>上|うえ</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>rich person</t>
+          <t>good at</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>お金持ち|おかねもち</t>
+          <t>上手な|じょうずな</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>rooftop</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>土曜日|どようび</t>
+          <t>屋上|おくじょう</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>soil</t>
+          <t>to go up</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>土|つち</t>
+          <t>上る|のぼる</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>land</t>
+          <t>under</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>土地|とち</t>
+          <t>下|した</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>clay</t>
+          <t>subway</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>粘土|ねんど</t>
+          <t>地下鉄|ちかてつ</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Japanese people</t>
+          <t>poor at</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>日本人|にほんじん</t>
+          <t>下手な|へたな</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>alone</t>
+          <t>Please give/do...</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>一人で|ひとりで</t>
+          <t>下さい|ください</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>this person</t>
+          <t>inside</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>この人|このひと</t>
+          <t>中|なか</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>three people</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>三人|さんにん</t>
+          <t>中国|ちゅうごく</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>junior high school</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>月曜日|げつようび</t>
+          <t>中学|ちゅうがく</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>all year round</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>一月|いちがつ</t>
+          <t>一年中|いちねんじゅう</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>moon</t>
+          <t>half past three</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>月|つき</t>
+          <t>三時半|さんじはん</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>this month</t>
+          <t>half</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>今月|こんげつ</t>
+          <t>半分|はんぶん</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>one month</t>
+          <t>half a year</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>一か月|いっかげつ</t>
+          <t>半年|はんとし</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>inside</t>
+          <t>half price</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>中|なか</t>
+          <t>半額|はんがく</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>中国|ちゅうごく</t>
+          <t>日曜日</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>junior high school</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>中学|ちゅうがく</t>
+          <t>月曜日</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>all year round</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>一年中|いちねんじゅう</t>
+          <t>火曜日</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>half past three</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>三時半|さんじはん</t>
+          <t>水曜日</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>half</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>半分|はんぶん</t>
+          <t>木曜日</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>half a year</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>半年|はんとし</t>
+          <t>金曜日</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>half price</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>半額|はんがく</t>
+          <t>土曜日</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-4.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-4.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1360,7 +1360,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>first day of the month</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>second day of the month</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>third day of the month</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>fourth day of the month</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>fifth day of the month</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>sixth day of the month</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>seventh day of the month</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>eighth day of the month</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>ninth day of the month</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>tenth day of the month</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>eleventh day of the month</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>twelth day of the month</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>thirteenth day of the month</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>fourteenth day of the month</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>fifteenth day of the month</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>sixteenth day of the month</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>seventeenth day of the month</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>eighteenth day of the month</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>nineteenth day of the month</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>twentieth day of the month</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>twenty-first day of the month</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>twenty-second day of the month</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>twenty-third day of the month</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>twenty-fourth day of the month</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>twenty-fifth day of the month</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>twenty-sixth day of the month</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>twenty-seventh day of the month</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>twenty-eighth day of the month</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>twenty-ninth day of the month</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>thirtieth day of the month</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>thiry-first day of the month</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2642,6 +2642,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-4.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-4.xlsx
@@ -1492,7 +1492,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>twelth day of the month</t>
+          <t>twelfth day of the month</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>thiry-first day of the month</t>
+          <t>thirty-first day of the month</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
